--- a/Workshop/BitcoinMiningAufgabe.xlsx
+++ b/Workshop/BitcoinMiningAufgabe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freese\OneDrive - TRANSWAGGON GmbH\Desktop\Berufsschule\Rechnernetze\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freese\OneDrive - TRANSWAGGON GmbH\Desktop\Berufsschule\Rechnernetze-I\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4EF2E-1A40-4033-BE10-E1AEF6D85196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939090E-5B7C-4184-95FA-22DEAA0D8963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1E2C6B5-D10F-4527-9482-57C51161F962}"/>
+    <workbookView xWindow="-23310" yWindow="0" windowWidth="21600" windowHeight="11325" xr2:uid="{E1E2C6B5-D10F-4527-9482-57C51161F962}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -72,21 +72,6 @@
   </si>
   <si>
     <t>Bitmain AntMiner S9</t>
-  </si>
-  <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
-    <t>Laufende Summe</t>
-  </si>
-  <si>
-    <t>Anzahl2</t>
   </si>
   <si>
     <t>Bitmain AntMiner T19</t>
@@ -116,7 +101,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -162,17 +147,17 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -181,14 +166,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -249,8 +227,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1878754</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
@@ -340,11 +318,11 @@
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BE7AFB3E-1BD5-4EE8-B194-838F126E93D7}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A0956A4B-BD2A-4284-BDFB-F6A8E1106EDF}" name="Preis" dataDxfId="4" dataCellStyle="Währung"/>
+    <tableColumn id="2" xr3:uid="{A0956A4B-BD2A-4284-BDFB-F6A8E1106EDF}" name="Preis" dataDxfId="3" dataCellStyle="Währung"/>
     <tableColumn id="3" xr3:uid="{61AD5289-8A51-4DDD-9FC4-27C8D1B78E53}" name="TH/s "/>
     <tableColumn id="4" xr3:uid="{99C32A08-D3C9-4EE0-A616-04B7E93EB5AB}" name="Watt"/>
     <tableColumn id="5" xr3:uid="{0FBEDC78-BF3E-448C-AB44-15D1716A9254}" name="Anzahl"/>
-    <tableColumn id="6" xr3:uid="{580B0B0F-1070-4D14-BDBC-E8877C83542A}" name="Anzahl * Preis" dataDxfId="3" dataCellStyle="Währung">
+    <tableColumn id="6" xr3:uid="{580B0B0F-1070-4D14-BDBC-E8877C83542A}" name="Anzahl * Preis" dataDxfId="2" dataCellStyle="Währung">
       <calculatedColumnFormula>E2*B2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{751D83DE-C686-4FE6-8ED1-4E989D7250C3}" name="TH/s * Anzahl">
@@ -353,7 +331,7 @@
     <tableColumn id="8" xr3:uid="{4F0DCD04-BE20-4D7E-AF9F-A855F55A6C92}" name="Watt * Anzahl">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4DBC7AE0-37A8-471A-827A-27D17A981CAC}" name="Profit per Day(0,06€ / kWh)" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4DBC7AE0-37A8-471A-827A-27D17A981CAC}" name="Profit per Day(0,06€ / kWh)" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{15C54DC1-6BE1-44E9-AC39-A94FA25DC22C}" name="Profit per Day(0,34€ / kWh)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -660,7 +638,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -702,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -722,15 +700,15 @@
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <f>E2*B2</f>
+        <f t="shared" ref="F2:F10" si="0">E2*B2</f>
         <v>6890</v>
       </c>
       <c r="G2">
-        <f>C2*E2</f>
+        <f t="shared" ref="G2:G10" si="1">C2*E2</f>
         <v>560</v>
       </c>
       <c r="H2">
-        <f>D2*E2</f>
+        <f t="shared" ref="H2:H10" si="2">D2*E2</f>
         <v>10608</v>
       </c>
       <c r="I2" s="3">
@@ -757,15 +735,15 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>E3*B3</f>
+        <f t="shared" si="0"/>
         <v>9645</v>
       </c>
       <c r="G3">
-        <f>C3*E3</f>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="H3">
-        <f>D3*E3</f>
+        <f t="shared" si="2"/>
         <v>16250</v>
       </c>
       <c r="I3" s="2">
@@ -777,7 +755,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>2455</v>
@@ -792,15 +770,15 @@
         <v>4</v>
       </c>
       <c r="F4" s="1">
-        <f>E4*B4</f>
+        <f t="shared" si="0"/>
         <v>9820</v>
       </c>
       <c r="G4">
-        <f>C4*E4</f>
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="H4">
-        <f>D4*E4</f>
+        <f t="shared" si="2"/>
         <v>13888</v>
       </c>
       <c r="I4" s="3">
@@ -812,7 +790,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>350</v>
@@ -827,15 +805,15 @@
         <v>28</v>
       </c>
       <c r="F5" s="1">
-        <f>E5*B5</f>
+        <f t="shared" si="0"/>
         <v>9800</v>
       </c>
       <c r="G5">
-        <f>C5*E5</f>
+        <f t="shared" si="1"/>
         <v>1232</v>
       </c>
       <c r="H5">
-        <f>D5*E5</f>
+        <f t="shared" si="2"/>
         <v>55440</v>
       </c>
       <c r="I5" s="3">
@@ -847,7 +825,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>1755</v>
@@ -862,15 +840,15 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <f>E6*B6</f>
+        <f t="shared" si="0"/>
         <v>8775</v>
       </c>
       <c r="G6">
-        <f>C6*E6</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="H6">
-        <f>D6*E6</f>
+        <f t="shared" si="2"/>
         <v>15750</v>
       </c>
       <c r="I6" s="3">
@@ -882,7 +860,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>3890</v>
@@ -897,15 +875,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>E7*B7</f>
+        <f t="shared" si="0"/>
         <v>7780</v>
       </c>
       <c r="G7">
-        <f>C7*E7</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="H7">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>6840</v>
       </c>
       <c r="I7" s="3">
@@ -917,7 +895,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>1295</v>
@@ -932,15 +910,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="5">
-        <f>E8*B8</f>
+        <f t="shared" si="0"/>
         <v>9065</v>
       </c>
       <c r="G8" s="4">
-        <f>C8*E8</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="H8" s="4">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>10360</v>
       </c>
       <c r="I8" s="6">
@@ -952,7 +930,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
         <v>600</v>
@@ -967,15 +945,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="5">
-        <f>E9*B9</f>
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="G9" s="4">
-        <f>C9*E9</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="H9" s="4">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="I9" s="6">
@@ -1002,15 +980,15 @@
         <v>62</v>
       </c>
       <c r="F10" s="5">
-        <f>E10*B10</f>
+        <f t="shared" si="0"/>
         <v>9920</v>
       </c>
       <c r="G10" s="4">
-        <f>C10*E10</f>
+        <f t="shared" si="1"/>
         <v>868</v>
       </c>
       <c r="H10" s="4">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
       <c r="I10" s="6">
@@ -1037,7 +1015,6 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1071,7 +1048,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"&lt;0"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
